--- a/documentation/risk_list.xlsx
+++ b/documentation/risk_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitKraken_bp\PluginIntoIntelliJ_BP\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1173B146-6FAC-4E23-86E0-97B20B20CD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B49235-5156-4FF9-9EEF-AFCEF533D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Popis</t>
   </si>
@@ -82,13 +82,70 @@
   </si>
   <si>
     <t>Jazykové varianty.</t>
+  </si>
+  <si>
+    <t>dopad</t>
+  </si>
+  <si>
+    <t>hight</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>úroveň složitosti</t>
+  </si>
+  <si>
+    <t>Priorita</t>
+  </si>
+  <si>
+    <t>Rešerše, analýza současného stavu.</t>
+  </si>
+  <si>
+    <t>Podle rešerše, analýzy současného stavu. Postupovat podle zadání.</t>
+  </si>
+  <si>
+    <t>Nastudování https://plugins.jetbrains.com/docs/intellij/welcome.html.</t>
+  </si>
+  <si>
+    <t>Nastudování možností UI pro plugin. Vytvoření.</t>
+  </si>
+  <si>
+    <t>Přístup?</t>
+  </si>
+  <si>
+    <t>Při každém použití si ukládat zdroje!!!</t>
+  </si>
+  <si>
+    <t>Dát to přečíst programátorovi/programátorům. Zkonzultovat čitelnost, apod.</t>
+  </si>
+  <si>
+    <t>Zajistit více verzí prostředí, různá zařízení.</t>
+  </si>
+  <si>
+    <t>Slabá místa - řešení</t>
+  </si>
+  <si>
+    <t>Dát to vyzkoušet skupině uživatelů.</t>
+  </si>
+  <si>
+    <t>Testy.</t>
+  </si>
+  <si>
+    <t>Nastudování možností pro jazykové varianty - metodiky, slovníky, apod.</t>
+  </si>
+  <si>
+    <t>Průběžné psaní (dokud je to čerstvé). Najít experta pro kontrolu sepsání BP. Zkontrolovat jedinečnost.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +153,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,14 +201,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4F4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,113 +503,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/risk_list.xlsx
+++ b/documentation/risk_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitKraken_bp\PluginIntoIntelliJ_BP\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B49235-5156-4FF9-9EEF-AFCEF533D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7A600-3244-43C8-B5E7-F01170DBABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,37 +108,37 @@
     <t>Podle rešerše, analýzy současného stavu. Postupovat podle zadání.</t>
   </si>
   <si>
-    <t>Nastudování https://plugins.jetbrains.com/docs/intellij/welcome.html.</t>
-  </si>
-  <si>
     <t>Nastudování možností UI pro plugin. Vytvoření.</t>
   </si>
   <si>
-    <t>Přístup?</t>
-  </si>
-  <si>
     <t>Při každém použití si ukládat zdroje!!!</t>
   </si>
   <si>
     <t>Dát to přečíst programátorovi/programátorům. Zkonzultovat čitelnost, apod.</t>
   </si>
   <si>
-    <t>Zajistit více verzí prostředí, různá zařízení.</t>
-  </si>
-  <si>
-    <t>Slabá místa - řešení</t>
-  </si>
-  <si>
     <t>Dát to vyzkoušet skupině uživatelů.</t>
   </si>
   <si>
     <t>Testy.</t>
   </si>
   <si>
-    <t>Nastudování možností pro jazykové varianty - metodiky, slovníky, apod.</t>
-  </si>
-  <si>
     <t>Průběžné psaní (dokud je to čerstvé). Najít experta pro kontrolu sepsání BP. Zkontrolovat jedinečnost.</t>
+  </si>
+  <si>
+    <t>Nastudování, odzkoušení schopnosti práce, odzkoušení funkčnosti.</t>
+  </si>
+  <si>
+    <t>Řešení</t>
+  </si>
+  <si>
+    <t>Zajistit více verzí / edicích prostředí, různá zařízení, nahrát na ně plugin a odzkoušet.</t>
+  </si>
+  <si>
+    <t>Nastudování možností pro jazykové varianty - metodiky, slovníky, apod., implementace.</t>
+  </si>
+  <si>
+    <t>Rešerše, analýza současného stavu, nejlepších metodik, recenze. Implementace a otestování.</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/documentation/risk_list.xlsx
+++ b/documentation/risk_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitKraken_bp\PluginIntoIntelliJ_BP\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7A600-3244-43C8-B5E7-F01170DBABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D95770-678A-4051-8D5C-08F7CD726D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
